--- a/requiment/DS_BTL_20192.xlsx
+++ b/requiment/DS_BTL_20192.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22730"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{242BECC1-D996-456C-9874-8E2FB37FABE4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6F0FBD3-0B68-4320-825E-D4A4AE682BC2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -215,7 +215,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -223,14 +223,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -629,19 +629,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="9" style="3"/>
-    <col min="2" max="2" width="34.25" style="3" customWidth="1"/>
-    <col min="3" max="3" width="65.25" style="6" customWidth="1"/>
-    <col min="4" max="4" width="16.125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="35.625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="34.26953125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="65.26953125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="16.08984375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="35.6328125" style="3" customWidth="1"/>
     <col min="6" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -658,7 +660,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="256.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="261" x14ac:dyDescent="0.35">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -675,7 +677,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -686,7 +688,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -697,7 +699,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -708,7 +710,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -716,7 +718,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="128.25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -730,7 +732,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="142.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" ht="145" x14ac:dyDescent="0.35">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -745,7 +747,7 @@
       </c>
       <c r="E8" s="10"/>
     </row>
-    <row r="9" spans="1:5" ht="114" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -760,7 +762,7 @@
       </c>
       <c r="E9" s="10"/>
     </row>
-    <row r="10" spans="1:5" ht="171" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" ht="174" x14ac:dyDescent="0.35">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -775,7 +777,7 @@
       </c>
       <c r="E10" s="10"/>
     </row>
-    <row r="11" spans="1:5" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -789,7 +791,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="270.75" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" ht="275.5" x14ac:dyDescent="0.35">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -803,7 +805,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="242.25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" ht="246.5" x14ac:dyDescent="0.35">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -818,7 +820,7 @@
       </c>
       <c r="E13" s="10"/>
     </row>
-    <row r="14" spans="1:5" ht="216" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" ht="216" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -835,7 +837,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="11">
         <v>14</v>
       </c>
@@ -846,7 +848,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D16" s="3">
         <f>SUM(D2:D15)</f>
         <v>32</v>
@@ -864,7 +866,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -876,7 +878,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/requiment/DS_BTL_20192.xlsx
+++ b/requiment/DS_BTL_20192.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22730"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6F0FBD3-0B68-4320-825E-D4A4AE682BC2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A45E403-AB7A-47A4-BB69-2CCD723EBDFF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
